--- a/Code/Results/Cases/Case_3_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9917290844823239</v>
+        <v>1.044851754993767</v>
       </c>
       <c r="D2">
-        <v>1.009672512713511</v>
+        <v>1.04239141642672</v>
       </c>
       <c r="E2">
-        <v>1.004181908978451</v>
+        <v>1.052316954061564</v>
       </c>
       <c r="F2">
-        <v>1.005127781184822</v>
+        <v>1.062528347295586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038366680444738</v>
+        <v>1.034161417093622</v>
       </c>
       <c r="J2">
-        <v>1.014160023161858</v>
+        <v>1.049914625706421</v>
       </c>
       <c r="K2">
-        <v>1.020998718924705</v>
+        <v>1.045168235852213</v>
       </c>
       <c r="L2">
-        <v>1.015583289003816</v>
+        <v>1.055066021810953</v>
       </c>
       <c r="M2">
-        <v>1.016516137154234</v>
+        <v>1.065249450043176</v>
       </c>
       <c r="N2">
-        <v>1.015600246720529</v>
+        <v>1.051405624901815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9997698289121227</v>
+        <v>1.046424936104267</v>
       </c>
       <c r="D3">
-        <v>1.015419907473416</v>
+        <v>1.043517314444692</v>
       </c>
       <c r="E3">
-        <v>1.011424252353866</v>
+        <v>1.05379078071919</v>
       </c>
       <c r="F3">
-        <v>1.013482978899096</v>
+        <v>1.064259335791564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337145356357</v>
+        <v>1.034454904882206</v>
       </c>
       <c r="J3">
-        <v>1.020266770590829</v>
+        <v>1.051132148410952</v>
       </c>
       <c r="K3">
-        <v>1.02585921735774</v>
+        <v>1.046104130472947</v>
       </c>
       <c r="L3">
-        <v>1.021913015112181</v>
+        <v>1.056350973924125</v>
       </c>
       <c r="M3">
-        <v>1.023946200865735</v>
+        <v>1.066792970410825</v>
       </c>
       <c r="N3">
-        <v>1.021715666431303</v>
+        <v>1.052624876628238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004804248102196</v>
+        <v>1.047440937957644</v>
       </c>
       <c r="D4">
-        <v>1.019020713337509</v>
+        <v>1.044243957472834</v>
       </c>
       <c r="E4">
-        <v>1.015965423090217</v>
+        <v>1.054742928570332</v>
       </c>
       <c r="F4">
-        <v>1.018724543683673</v>
+        <v>1.065378205842134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041557352495763</v>
+        <v>1.034642659653634</v>
       </c>
       <c r="J4">
-        <v>1.024085854021634</v>
+        <v>1.051917664654829</v>
       </c>
       <c r="K4">
-        <v>1.028894869714978</v>
+        <v>1.046707251274304</v>
       </c>
       <c r="L4">
-        <v>1.025874903819456</v>
+        <v>1.057180400432468</v>
       </c>
       <c r="M4">
-        <v>1.02860211283124</v>
+        <v>1.067790077958462</v>
       </c>
       <c r="N4">
-        <v>1.025540173398634</v>
+        <v>1.053411508395281</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006882838079515</v>
+        <v>1.047867607768563</v>
       </c>
       <c r="D5">
-        <v>1.020507795902934</v>
+        <v>1.044548992052301</v>
       </c>
       <c r="E5">
-        <v>1.017841873726666</v>
+        <v>1.055142856976782</v>
       </c>
       <c r="F5">
-        <v>1.020891085490043</v>
+        <v>1.065848302978901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042057823601507</v>
+        <v>1.034721078772074</v>
       </c>
       <c r="J5">
-        <v>1.025661521584461</v>
+        <v>1.05224735194673</v>
       </c>
       <c r="K5">
-        <v>1.03014629605436</v>
+        <v>1.046960218577341</v>
       </c>
       <c r="L5">
-        <v>1.027510304313945</v>
+        <v>1.057528614744791</v>
       </c>
       <c r="M5">
-        <v>1.030525298251888</v>
+        <v>1.068208875517705</v>
       </c>
       <c r="N5">
-        <v>1.027118078590131</v>
+        <v>1.053741663880952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007229688337926</v>
+        <v>1.047939220971343</v>
       </c>
       <c r="D6">
-        <v>1.020755961624436</v>
+        <v>1.044600182708736</v>
       </c>
       <c r="E6">
-        <v>1.018155079998299</v>
+        <v>1.055209986171315</v>
       </c>
       <c r="F6">
-        <v>1.021252753850002</v>
+        <v>1.065927218480187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042141138611092</v>
+        <v>1.034734215665204</v>
       </c>
       <c r="J6">
-        <v>1.025924381017812</v>
+        <v>1.052302676224252</v>
       </c>
       <c r="K6">
-        <v>1.030355003214562</v>
+        <v>1.047002658776114</v>
       </c>
       <c r="L6">
-        <v>1.027783176839176</v>
+        <v>1.057587053738716</v>
       </c>
       <c r="M6">
-        <v>1.030846266330149</v>
+        <v>1.068279171079663</v>
       </c>
       <c r="N6">
-        <v>1.027381311314028</v>
+        <v>1.053797066725294</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004832168089185</v>
+        <v>1.047446640925568</v>
       </c>
       <c r="D7">
-        <v>1.019040686712833</v>
+        <v>1.044248035105618</v>
       </c>
       <c r="E7">
-        <v>1.01599062202596</v>
+        <v>1.054748273815916</v>
       </c>
       <c r="F7">
-        <v>1.018753635490716</v>
+        <v>1.065384488374188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041564088170434</v>
+        <v>1.034643709506884</v>
       </c>
       <c r="J7">
-        <v>1.024107023275723</v>
+        <v>1.051922072079907</v>
       </c>
       <c r="K7">
-        <v>1.028911686835351</v>
+        <v>1.04671063372633</v>
       </c>
       <c r="L7">
-        <v>1.025896872351983</v>
+        <v>1.057185055152202</v>
       </c>
       <c r="M7">
-        <v>1.028627942008556</v>
+        <v>1.067795675458907</v>
       </c>
       <c r="N7">
-        <v>1.025561372715492</v>
+        <v>1.053415922079409</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9944829295399107</v>
+        <v>1.045383828926724</v>
       </c>
       <c r="D8">
-        <v>1.011640336928816</v>
+        <v>1.042772313483339</v>
       </c>
       <c r="E8">
-        <v>1.006660854972993</v>
+        <v>1.052815359834284</v>
       </c>
       <c r="F8">
-        <v>1.007987128772748</v>
+        <v>1.063113596674762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039044349438621</v>
+        <v>1.034261049392893</v>
       </c>
       <c r="J8">
-        <v>1.016252389773014</v>
+        <v>1.050326574425108</v>
       </c>
       <c r="K8">
-        <v>1.022664907627508</v>
+        <v>1.045485039716336</v>
       </c>
       <c r="L8">
-        <v>1.017751350388415</v>
+        <v>1.055500701082468</v>
       </c>
       <c r="M8">
-        <v>1.019059985422536</v>
+        <v>1.06577143796539</v>
       </c>
       <c r="N8">
-        <v>1.01769558473227</v>
+        <v>1.051818158634934</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9748318166628887</v>
+        <v>1.041733502081688</v>
       </c>
       <c r="D9">
-        <v>0.9976151711543546</v>
+        <v>1.040157175113587</v>
       </c>
       <c r="E9">
-        <v>0.9890042037671158</v>
+        <v>1.049397320314196</v>
       </c>
       <c r="F9">
-        <v>0.9876295602200816</v>
+        <v>1.059102377303651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034153212607127</v>
+        <v>1.033570182077322</v>
       </c>
       <c r="J9">
-        <v>1.001305741627158</v>
+        <v>1.047497134803623</v>
       </c>
       <c r="K9">
-        <v>1.010747059407072</v>
+        <v>1.043306251022439</v>
       </c>
       <c r="L9">
-        <v>1.002278235426313</v>
+        <v>1.052516804873483</v>
       </c>
       <c r="M9">
-        <v>1.000926579176264</v>
+        <v>1.062191389192016</v>
       </c>
       <c r="N9">
-        <v>1.002727710631642</v>
+        <v>1.048984700884645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9605807410602391</v>
+        <v>1.039288983563507</v>
       </c>
       <c r="D10">
-        <v>0.9874749805635896</v>
+        <v>1.038403471509772</v>
       </c>
       <c r="E10">
-        <v>0.9762468731563161</v>
+        <v>1.047110022071995</v>
       </c>
       <c r="F10">
-        <v>0.9729281971550188</v>
+        <v>1.056421113479119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030539214130983</v>
+        <v>1.033098329629609</v>
       </c>
       <c r="J10">
-        <v>0.9904505977696293</v>
+        <v>1.045598288549796</v>
       </c>
       <c r="K10">
-        <v>1.002074121405652</v>
+        <v>1.041840504685519</v>
       </c>
       <c r="L10">
-        <v>0.9910586630873621</v>
+        <v>1.050516389886313</v>
       </c>
       <c r="M10">
-        <v>0.9878040713502194</v>
+        <v>1.059795302107617</v>
       </c>
       <c r="N10">
-        <v>0.9918571512247336</v>
+        <v>1.047083158051337</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9540831633393834</v>
+        <v>1.038227739870717</v>
       </c>
       <c r="D11">
-        <v>0.9828623949368316</v>
+        <v>1.037641576209658</v>
       </c>
       <c r="E11">
-        <v>0.9704435324346474</v>
+        <v>1.046117435090232</v>
       </c>
       <c r="F11">
-        <v>0.9662409643755672</v>
+        <v>1.055258262926783</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028877087586322</v>
+        <v>1.032891308221909</v>
       </c>
       <c r="J11">
-        <v>0.9854992608585229</v>
+        <v>1.044772983924875</v>
       </c>
       <c r="K11">
-        <v>0.9981149034682995</v>
+        <v>1.041202604817874</v>
       </c>
       <c r="L11">
-        <v>0.9859452278886321</v>
+        <v>1.049647432452612</v>
       </c>
       <c r="M11">
-        <v>0.9818289003257875</v>
+        <v>1.058755411016825</v>
       </c>
       <c r="N11">
-        <v>0.9868987828472874</v>
+        <v>1.046256681399185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9516151157117949</v>
+        <v>1.037833121348226</v>
       </c>
       <c r="D12">
-        <v>0.981112278900646</v>
+        <v>1.037358186878398</v>
       </c>
       <c r="E12">
-        <v>0.9682413568328756</v>
+        <v>1.045748407341369</v>
       </c>
       <c r="F12">
-        <v>0.9637033179694633</v>
+        <v>1.054826038563261</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028243732421861</v>
+        <v>1.032814002028875</v>
       </c>
       <c r="J12">
-        <v>0.9836183897855847</v>
+        <v>1.044465955344516</v>
       </c>
       <c r="K12">
-        <v>0.9966105100887532</v>
+        <v>1.040965169358238</v>
       </c>
       <c r="L12">
-        <v>0.9840033886699958</v>
+        <v>1.049324237995713</v>
       </c>
       <c r="M12">
-        <v>0.9795605849868422</v>
+        <v>1.058368781691015</v>
       </c>
       <c r="N12">
-        <v>0.9850152407216866</v>
+        <v>1.045949216803025</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9521470863989793</v>
+        <v>1.037917787804078</v>
       </c>
       <c r="D13">
-        <v>0.9814894114371316</v>
+        <v>1.037418992506113</v>
       </c>
       <c r="E13">
-        <v>0.9687159193035548</v>
+        <v>1.045827580453892</v>
       </c>
       <c r="F13">
-        <v>0.9642501785739162</v>
+        <v>1.054918765478342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028380335910658</v>
+        <v>1.032830603030842</v>
       </c>
       <c r="J13">
-        <v>0.9840238024771303</v>
+        <v>1.044531835601742</v>
       </c>
       <c r="K13">
-        <v>0.9969347913476666</v>
+        <v>1.041016122403889</v>
       </c>
       <c r="L13">
-        <v>0.9844219155067619</v>
+        <v>1.049393583690505</v>
       </c>
       <c r="M13">
-        <v>0.9800494439599305</v>
+        <v>1.058451731808094</v>
       </c>
       <c r="N13">
-        <v>0.9854212291457558</v>
+        <v>1.046015190617772</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9538803014074085</v>
+        <v>1.038195129327924</v>
       </c>
       <c r="D14">
-        <v>0.9827185024129917</v>
+        <v>1.037618159106839</v>
       </c>
       <c r="E14">
-        <v>0.9702624787482291</v>
+        <v>1.046086938071869</v>
       </c>
       <c r="F14">
-        <v>0.9660323317761097</v>
+        <v>1.055222541113121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028825068579768</v>
+        <v>1.032884926431372</v>
       </c>
       <c r="J14">
-        <v>0.9853446640889562</v>
+        <v>1.044747614563478</v>
       </c>
       <c r="K14">
-        <v>0.9979912585551688</v>
+        <v>1.041182988386494</v>
       </c>
       <c r="L14">
-        <v>0.9857856076373963</v>
+        <v>1.049620725823412</v>
       </c>
       <c r="M14">
-        <v>0.9816424283511445</v>
+        <v>1.058723459679229</v>
       </c>
       <c r="N14">
-        <v>0.986743966532575</v>
+        <v>1.046231276010385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9549407847919659</v>
+        <v>1.038365951867077</v>
       </c>
       <c r="D15">
-        <v>0.9834707971692315</v>
+        <v>1.037740820654179</v>
       </c>
       <c r="E15">
-        <v>0.9712090464486144</v>
+        <v>1.046246691922864</v>
       </c>
       <c r="F15">
-        <v>0.9671230815469586</v>
+        <v>1.055409668514867</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029096923057745</v>
+        <v>1.032918342565308</v>
       </c>
       <c r="J15">
-        <v>0.9861528309194867</v>
+        <v>1.044880500057126</v>
       </c>
       <c r="K15">
-        <v>0.9986376064301002</v>
+        <v>1.041285734747455</v>
       </c>
       <c r="L15">
-        <v>0.9866200597306637</v>
+        <v>1.04976061898497</v>
       </c>
       <c r="M15">
-        <v>0.9826172849504379</v>
+        <v>1.058890831149988</v>
       </c>
       <c r="N15">
-        <v>0.9875532810527028</v>
+        <v>1.046364350216676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9610046319057046</v>
+        <v>1.039359355824936</v>
       </c>
       <c r="D16">
-        <v>0.9877761447991295</v>
+        <v>1.038453982057839</v>
       </c>
       <c r="E16">
-        <v>0.9766257605819192</v>
+        <v>1.047175850153407</v>
       </c>
       <c r="F16">
-        <v>0.9733647907418161</v>
+        <v>1.056498248081751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030647363945259</v>
+        <v>1.033112011716815</v>
       </c>
       <c r="J16">
-        <v>0.990773584717999</v>
+        <v>1.045652995377856</v>
       </c>
       <c r="K16">
-        <v>1.002332330343963</v>
+        <v>1.04188277152082</v>
       </c>
       <c r="L16">
-        <v>0.9913923082417616</v>
+        <v>1.050574000663298</v>
       </c>
       <c r="M16">
-        <v>0.9881940530038201</v>
+        <v>1.059864265353526</v>
       </c>
       <c r="N16">
-        <v>0.992180596851617</v>
+        <v>1.047137942569368</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9647172377137639</v>
+        <v>1.039981746877138</v>
       </c>
       <c r="D17">
-        <v>0.9904150981232794</v>
+        <v>1.038900646807716</v>
       </c>
       <c r="E17">
-        <v>0.9799457101522612</v>
+        <v>1.047758097764285</v>
       </c>
       <c r="F17">
-        <v>0.9771904199263255</v>
+        <v>1.057180582292431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031592984051143</v>
+        <v>1.033232768873863</v>
       </c>
       <c r="J17">
-        <v>0.9936022166600488</v>
+        <v>1.046136727083066</v>
       </c>
       <c r="K17">
-        <v>1.004593298794611</v>
+        <v>1.042256409385232</v>
       </c>
       <c r="L17">
-        <v>0.9943147442575633</v>
+        <v>1.051083466580313</v>
       </c>
       <c r="M17">
-        <v>0.9916105635594041</v>
+        <v>1.060474232443267</v>
       </c>
       <c r="N17">
-        <v>0.9950132457754732</v>
+        <v>1.047622361229083</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9668516202680023</v>
+        <v>1.040344512431967</v>
       </c>
       <c r="D18">
-        <v>0.9919332131416627</v>
+        <v>1.039160935187492</v>
       </c>
       <c r="E18">
-        <v>0.9818555735864332</v>
+        <v>1.048097504115016</v>
       </c>
       <c r="F18">
-        <v>0.9793912368250673</v>
+        <v>1.057578399075255</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03213526770869</v>
+        <v>1.033302943553835</v>
       </c>
       <c r="J18">
-        <v>0.9952281946014553</v>
+        <v>1.046418581928496</v>
       </c>
       <c r="K18">
-        <v>1.005892657948437</v>
+        <v>1.042474035625831</v>
       </c>
       <c r="L18">
-        <v>0.9959950301931393</v>
+        <v>1.051380363347589</v>
       </c>
       <c r="M18">
-        <v>0.9935754462664785</v>
+        <v>1.060829788078151</v>
       </c>
       <c r="N18">
-        <v>0.9966415327920587</v>
+        <v>1.047904616340724</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9675742639547532</v>
+        <v>1.040468161590744</v>
       </c>
       <c r="D19">
-        <v>0.9924473621857565</v>
+        <v>1.039249645699612</v>
       </c>
       <c r="E19">
-        <v>0.9825024028822705</v>
+        <v>1.048213197803448</v>
       </c>
       <c r="F19">
-        <v>0.9801366180965884</v>
+        <v>1.057714014638008</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032318636252497</v>
+        <v>1.033326827128186</v>
       </c>
       <c r="J19">
-        <v>0.9957786668083518</v>
+        <v>1.046514636933372</v>
       </c>
       <c r="K19">
-        <v>1.006332498933476</v>
+        <v>1.042548188109642</v>
       </c>
       <c r="L19">
-        <v>0.9965639542261852</v>
+        <v>1.051481552630435</v>
       </c>
       <c r="M19">
-        <v>0.9942408217480491</v>
+        <v>1.060950985059499</v>
       </c>
       <c r="N19">
-        <v>0.9971927867326295</v>
+        <v>1.048000807754724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9643221656869779</v>
+        <v>1.039914997665116</v>
       </c>
       <c r="D20">
-        <v>0.9901341736231182</v>
+        <v>1.038852749158579</v>
       </c>
       <c r="E20">
-        <v>0.9795922940097201</v>
+        <v>1.047695649781966</v>
       </c>
       <c r="F20">
-        <v>0.9767831685293875</v>
+        <v>1.057107392710881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031492497056095</v>
+        <v>1.033219839781809</v>
       </c>
       <c r="J20">
-        <v>0.9933012319563718</v>
+        <v>1.04608485810554</v>
       </c>
       <c r="K20">
-        <v>1.004352748778806</v>
+        <v>1.04221635373548</v>
       </c>
       <c r="L20">
-        <v>0.9940037380476827</v>
+        <v>1.051028833300834</v>
       </c>
       <c r="M20">
-        <v>0.9912469238319046</v>
+        <v>1.060408812397666</v>
       </c>
       <c r="N20">
-        <v>0.9947118336389936</v>
+        <v>1.04757041859166</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9533714670835894</v>
+        <v>1.03811347100113</v>
       </c>
       <c r="D21">
-        <v>0.9823576120733262</v>
+        <v>1.037559520263375</v>
       </c>
       <c r="E21">
-        <v>0.9698083811817455</v>
+        <v>1.046010573098162</v>
       </c>
       <c r="F21">
-        <v>0.9655090625311487</v>
+        <v>1.055133094864359</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028694558627265</v>
+        <v>1.032868940861925</v>
       </c>
       <c r="J21">
-        <v>0.9849568904553191</v>
+        <v>1.044684086188107</v>
       </c>
       <c r="K21">
-        <v>0.9976811150666922</v>
+        <v>1.041133864125266</v>
       </c>
       <c r="L21">
-        <v>0.9853852433833392</v>
+        <v>1.049553849935866</v>
       </c>
       <c r="M21">
-        <v>0.9811747259501832</v>
+        <v>1.058643452830537</v>
       </c>
       <c r="N21">
-        <v>0.9863556422159001</v>
+        <v>1.046167657417433</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9461672944471846</v>
+        <v>1.036978312616772</v>
       </c>
       <c r="D22">
-        <v>0.977253153176313</v>
+        <v>1.03674417030146</v>
       </c>
       <c r="E22">
-        <v>0.9633846565609284</v>
+        <v>1.044949144925762</v>
       </c>
       <c r="F22">
-        <v>0.9581064878829407</v>
+        <v>1.053890091892611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026842166588502</v>
+        <v>1.032645947802646</v>
       </c>
       <c r="J22">
-        <v>0.979466593448621</v>
+        <v>1.043800620003811</v>
       </c>
       <c r="K22">
-        <v>0.9932891108249228</v>
+        <v>1.040450415396447</v>
       </c>
       <c r="L22">
-        <v>0.9797181231024361</v>
+        <v>1.048624005736854</v>
       </c>
       <c r="M22">
-        <v>0.9745561946786004</v>
+        <v>1.057531369357088</v>
       </c>
       <c r="N22">
-        <v>0.9808575483577064</v>
+        <v>1.045282936609821</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9500186652886814</v>
+        <v>1.037580319454782</v>
       </c>
       <c r="D23">
-        <v>0.9799808108034661</v>
+        <v>1.037176618085494</v>
       </c>
       <c r="E23">
-        <v>0.9668175238763456</v>
+        <v>1.045512016779206</v>
       </c>
       <c r="F23">
-        <v>0.9620625480222854</v>
+        <v>1.054549195106273</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02783350132755</v>
+        <v>1.032764386086881</v>
       </c>
       <c r="J23">
-        <v>0.982401733435659</v>
+        <v>1.044269225461364</v>
       </c>
       <c r="K23">
-        <v>0.9956372804691092</v>
+        <v>1.040812996474627</v>
       </c>
       <c r="L23">
-        <v>0.9827474646014555</v>
+        <v>1.049117170501536</v>
       </c>
       <c r="M23">
-        <v>0.9780937143362696</v>
+        <v>1.058121111778688</v>
       </c>
       <c r="N23">
-        <v>0.9837968565801914</v>
+        <v>1.045752207540874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9645007774897111</v>
+        <v>1.039945159578561</v>
       </c>
       <c r="D24">
-        <v>0.990261176390922</v>
+        <v>1.038874392797407</v>
       </c>
       <c r="E24">
-        <v>0.9797520694368236</v>
+        <v>1.047723867982522</v>
       </c>
       <c r="F24">
-        <v>0.9769672820937023</v>
+        <v>1.057140464480055</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031537931383097</v>
+        <v>1.03322568268829</v>
       </c>
       <c r="J24">
-        <v>0.9934373075970155</v>
+        <v>1.046108296383704</v>
       </c>
       <c r="K24">
-        <v>1.004461502774801</v>
+        <v>1.042234454118673</v>
       </c>
       <c r="L24">
-        <v>0.9941443432230741</v>
+        <v>1.051053520550441</v>
       </c>
       <c r="M24">
-        <v>0.9914113228651723</v>
+        <v>1.060438373604425</v>
       </c>
       <c r="N24">
-        <v>0.9948481025226551</v>
+        <v>1.047593890154867</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9800986388588172</v>
+        <v>1.042679086289162</v>
       </c>
       <c r="D25">
-        <v>1.001369889421752</v>
+        <v>1.040835034880914</v>
       </c>
       <c r="E25">
-        <v>0.9937290239912679</v>
+        <v>1.050282442438823</v>
       </c>
       <c r="F25">
-        <v>0.9930754882927042</v>
+        <v>1.06014058013323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03547589244308</v>
+        <v>1.03375076518789</v>
       </c>
       <c r="J25">
-        <v>1.005314840202656</v>
+        <v>1.048230790495</v>
       </c>
       <c r="K25">
-        <v>1.013946976777913</v>
+        <v>1.043871824103631</v>
       </c>
       <c r="L25">
-        <v>1.00642547511658</v>
+        <v>1.053290142443086</v>
       </c>
       <c r="M25">
-        <v>1.005782257965733</v>
+        <v>1.063118528652901</v>
       </c>
       <c r="N25">
-        <v>1.006742502586968</v>
+        <v>1.049719398451255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044851754993767</v>
+        <v>0.9917290844823238</v>
       </c>
       <c r="D2">
-        <v>1.04239141642672</v>
+        <v>1.009672512713511</v>
       </c>
       <c r="E2">
-        <v>1.052316954061564</v>
+        <v>1.004181908978451</v>
       </c>
       <c r="F2">
-        <v>1.062528347295586</v>
+        <v>1.005127781184822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034161417093622</v>
+        <v>1.038366680444738</v>
       </c>
       <c r="J2">
-        <v>1.049914625706421</v>
+        <v>1.014160023161858</v>
       </c>
       <c r="K2">
-        <v>1.045168235852213</v>
+        <v>1.020998718924705</v>
       </c>
       <c r="L2">
-        <v>1.055066021810953</v>
+        <v>1.015583289003816</v>
       </c>
       <c r="M2">
-        <v>1.065249450043176</v>
+        <v>1.016516137154234</v>
       </c>
       <c r="N2">
-        <v>1.051405624901815</v>
+        <v>1.015600246720528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046424936104267</v>
+        <v>0.999769828912123</v>
       </c>
       <c r="D3">
-        <v>1.043517314444692</v>
+        <v>1.015419907473416</v>
       </c>
       <c r="E3">
-        <v>1.05379078071919</v>
+        <v>1.011424252353866</v>
       </c>
       <c r="F3">
-        <v>1.064259335791564</v>
+        <v>1.013482978899096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034454904882206</v>
+        <v>1.040337145356357</v>
       </c>
       <c r="J3">
-        <v>1.051132148410952</v>
+        <v>1.020266770590829</v>
       </c>
       <c r="K3">
-        <v>1.046104130472947</v>
+        <v>1.02585921735774</v>
       </c>
       <c r="L3">
-        <v>1.056350973924125</v>
+        <v>1.021913015112182</v>
       </c>
       <c r="M3">
-        <v>1.066792970410825</v>
+        <v>1.023946200865734</v>
       </c>
       <c r="N3">
-        <v>1.052624876628238</v>
+        <v>1.021715666431302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047440937957644</v>
+        <v>1.004804248102196</v>
       </c>
       <c r="D4">
-        <v>1.044243957472834</v>
+        <v>1.019020713337508</v>
       </c>
       <c r="E4">
-        <v>1.054742928570332</v>
+        <v>1.015965423090217</v>
       </c>
       <c r="F4">
-        <v>1.065378205842134</v>
+        <v>1.018724543683672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034642659653634</v>
+        <v>1.041557352495762</v>
       </c>
       <c r="J4">
-        <v>1.051917664654829</v>
+        <v>1.024085854021634</v>
       </c>
       <c r="K4">
-        <v>1.046707251274304</v>
+        <v>1.028894869714978</v>
       </c>
       <c r="L4">
-        <v>1.057180400432468</v>
+        <v>1.025874903819456</v>
       </c>
       <c r="M4">
-        <v>1.067790077958462</v>
+        <v>1.028602112831239</v>
       </c>
       <c r="N4">
-        <v>1.053411508395281</v>
+        <v>1.025540173398634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047867607768563</v>
+        <v>1.006882838079515</v>
       </c>
       <c r="D5">
-        <v>1.044548992052301</v>
+        <v>1.020507795902935</v>
       </c>
       <c r="E5">
-        <v>1.055142856976782</v>
+        <v>1.017841873726666</v>
       </c>
       <c r="F5">
-        <v>1.065848302978901</v>
+        <v>1.020891085490042</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034721078772074</v>
+        <v>1.042057823601507</v>
       </c>
       <c r="J5">
-        <v>1.05224735194673</v>
+        <v>1.025661521584461</v>
       </c>
       <c r="K5">
-        <v>1.046960218577341</v>
+        <v>1.03014629605436</v>
       </c>
       <c r="L5">
-        <v>1.057528614744791</v>
+        <v>1.027510304313944</v>
       </c>
       <c r="M5">
-        <v>1.068208875517705</v>
+        <v>1.030525298251888</v>
       </c>
       <c r="N5">
-        <v>1.053741663880952</v>
+        <v>1.027118078590131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047939220971343</v>
+        <v>1.007229688337925</v>
       </c>
       <c r="D6">
-        <v>1.044600182708736</v>
+        <v>1.020755961624435</v>
       </c>
       <c r="E6">
-        <v>1.055209986171315</v>
+        <v>1.018155079998298</v>
       </c>
       <c r="F6">
-        <v>1.065927218480187</v>
+        <v>1.021252753850002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034734215665204</v>
+        <v>1.042141138611092</v>
       </c>
       <c r="J6">
-        <v>1.052302676224252</v>
+        <v>1.025924381017811</v>
       </c>
       <c r="K6">
-        <v>1.047002658776114</v>
+        <v>1.030355003214561</v>
       </c>
       <c r="L6">
-        <v>1.057587053738716</v>
+        <v>1.027783176839175</v>
       </c>
       <c r="M6">
-        <v>1.068279171079663</v>
+        <v>1.030846266330148</v>
       </c>
       <c r="N6">
-        <v>1.053797066725294</v>
+        <v>1.027381311314027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047446640925568</v>
+        <v>1.004832168089186</v>
       </c>
       <c r="D7">
-        <v>1.044248035105618</v>
+        <v>1.019040686712834</v>
       </c>
       <c r="E7">
-        <v>1.054748273815916</v>
+        <v>1.015990622025961</v>
       </c>
       <c r="F7">
-        <v>1.065384488374188</v>
+        <v>1.018753635490717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034643709506884</v>
+        <v>1.041564088170434</v>
       </c>
       <c r="J7">
-        <v>1.051922072079907</v>
+        <v>1.024107023275725</v>
       </c>
       <c r="K7">
-        <v>1.04671063372633</v>
+        <v>1.028911686835352</v>
       </c>
       <c r="L7">
-        <v>1.057185055152202</v>
+        <v>1.025896872351983</v>
       </c>
       <c r="M7">
-        <v>1.067795675458907</v>
+        <v>1.028627942008557</v>
       </c>
       <c r="N7">
-        <v>1.053415922079409</v>
+        <v>1.025561372715494</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045383828926724</v>
+        <v>0.9944829295399115</v>
       </c>
       <c r="D8">
-        <v>1.042772313483339</v>
+        <v>1.011640336928817</v>
       </c>
       <c r="E8">
-        <v>1.052815359834284</v>
+        <v>1.006660854972994</v>
       </c>
       <c r="F8">
-        <v>1.063113596674762</v>
+        <v>1.00798712877275</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034261049392893</v>
+        <v>1.039044349438621</v>
       </c>
       <c r="J8">
-        <v>1.050326574425108</v>
+        <v>1.016252389773014</v>
       </c>
       <c r="K8">
-        <v>1.045485039716336</v>
+        <v>1.022664907627509</v>
       </c>
       <c r="L8">
-        <v>1.055500701082468</v>
+        <v>1.017751350388416</v>
       </c>
       <c r="M8">
-        <v>1.06577143796539</v>
+        <v>1.019059985422537</v>
       </c>
       <c r="N8">
-        <v>1.051818158634934</v>
+        <v>1.017695584732271</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041733502081688</v>
+        <v>0.9748318166628892</v>
       </c>
       <c r="D9">
-        <v>1.040157175113587</v>
+        <v>0.9976151711543548</v>
       </c>
       <c r="E9">
-        <v>1.049397320314196</v>
+        <v>0.9890042037671161</v>
       </c>
       <c r="F9">
-        <v>1.059102377303651</v>
+        <v>0.9876295602200823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033570182077322</v>
+        <v>1.034153212607128</v>
       </c>
       <c r="J9">
-        <v>1.047497134803623</v>
+        <v>1.001305741627158</v>
       </c>
       <c r="K9">
-        <v>1.043306251022439</v>
+        <v>1.010747059407072</v>
       </c>
       <c r="L9">
-        <v>1.052516804873483</v>
+        <v>1.002278235426313</v>
       </c>
       <c r="M9">
-        <v>1.062191389192016</v>
+        <v>1.000926579176264</v>
       </c>
       <c r="N9">
-        <v>1.048984700884645</v>
+        <v>1.002727710631643</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039288983563507</v>
+        <v>0.9605807410602399</v>
       </c>
       <c r="D10">
-        <v>1.038403471509772</v>
+        <v>0.9874749805635902</v>
       </c>
       <c r="E10">
-        <v>1.047110022071995</v>
+        <v>0.9762468731563171</v>
       </c>
       <c r="F10">
-        <v>1.056421113479119</v>
+        <v>0.9729281971550201</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033098329629609</v>
+        <v>1.030539214130983</v>
       </c>
       <c r="J10">
-        <v>1.045598288549796</v>
+        <v>0.9904505977696298</v>
       </c>
       <c r="K10">
-        <v>1.041840504685519</v>
+        <v>1.002074121405652</v>
       </c>
       <c r="L10">
-        <v>1.050516389886313</v>
+        <v>0.991058663087363</v>
       </c>
       <c r="M10">
-        <v>1.059795302107617</v>
+        <v>0.9878040713502207</v>
       </c>
       <c r="N10">
-        <v>1.047083158051337</v>
+        <v>0.9918571512247341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038227739870717</v>
+        <v>0.9540831633393811</v>
       </c>
       <c r="D11">
-        <v>1.037641576209658</v>
+        <v>0.9828623949368296</v>
       </c>
       <c r="E11">
-        <v>1.046117435090232</v>
+        <v>0.9704435324346452</v>
       </c>
       <c r="F11">
-        <v>1.055258262926783</v>
+        <v>0.9662409643755651</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032891308221909</v>
+        <v>1.028877087586321</v>
       </c>
       <c r="J11">
-        <v>1.044772983924875</v>
+        <v>0.9854992608585208</v>
       </c>
       <c r="K11">
-        <v>1.041202604817874</v>
+        <v>0.9981149034682973</v>
       </c>
       <c r="L11">
-        <v>1.049647432452612</v>
+        <v>0.98594522788863</v>
       </c>
       <c r="M11">
-        <v>1.058755411016825</v>
+        <v>0.9818289003257854</v>
       </c>
       <c r="N11">
-        <v>1.046256681399185</v>
+        <v>0.9868987828472848</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037833121348226</v>
+        <v>0.9516151157117919</v>
       </c>
       <c r="D12">
-        <v>1.037358186878398</v>
+        <v>0.9811122789006436</v>
       </c>
       <c r="E12">
-        <v>1.045748407341369</v>
+        <v>0.9682413568328728</v>
       </c>
       <c r="F12">
-        <v>1.054826038563261</v>
+        <v>0.9637033179694605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032814002028875</v>
+        <v>1.028243732421861</v>
       </c>
       <c r="J12">
-        <v>1.044465955344516</v>
+        <v>0.983618389785582</v>
       </c>
       <c r="K12">
-        <v>1.040965169358238</v>
+        <v>0.9966105100887505</v>
       </c>
       <c r="L12">
-        <v>1.049324237995713</v>
+        <v>0.9840033886699935</v>
       </c>
       <c r="M12">
-        <v>1.058368781691015</v>
+        <v>0.9795605849868396</v>
       </c>
       <c r="N12">
-        <v>1.045949216803025</v>
+        <v>0.9850152407216838</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037917787804078</v>
+        <v>0.9521470863989788</v>
       </c>
       <c r="D13">
-        <v>1.037418992506113</v>
+        <v>0.9814894114371313</v>
       </c>
       <c r="E13">
-        <v>1.045827580453892</v>
+        <v>0.9687159193035546</v>
       </c>
       <c r="F13">
-        <v>1.054918765478342</v>
+        <v>0.9642501785739157</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032830603030842</v>
+        <v>1.028380335910658</v>
       </c>
       <c r="J13">
-        <v>1.044531835601742</v>
+        <v>0.9840238024771298</v>
       </c>
       <c r="K13">
-        <v>1.041016122403889</v>
+        <v>0.9969347913476663</v>
       </c>
       <c r="L13">
-        <v>1.049393583690505</v>
+        <v>0.9844219155067616</v>
       </c>
       <c r="M13">
-        <v>1.058451731808094</v>
+        <v>0.9800494439599304</v>
       </c>
       <c r="N13">
-        <v>1.046015190617772</v>
+        <v>0.985421229145755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038195129327924</v>
+        <v>0.953880301407407</v>
       </c>
       <c r="D14">
-        <v>1.037618159106839</v>
+        <v>0.9827185024129906</v>
       </c>
       <c r="E14">
-        <v>1.046086938071869</v>
+        <v>0.9702624787482275</v>
       </c>
       <c r="F14">
-        <v>1.055222541113121</v>
+        <v>0.9660323317761079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032884926431372</v>
+        <v>1.028825068579768</v>
       </c>
       <c r="J14">
-        <v>1.044747614563478</v>
+        <v>0.9853446640889548</v>
       </c>
       <c r="K14">
-        <v>1.041182988386494</v>
+        <v>0.9979912585551678</v>
       </c>
       <c r="L14">
-        <v>1.049620725823412</v>
+        <v>0.9857856076373953</v>
       </c>
       <c r="M14">
-        <v>1.058723459679229</v>
+        <v>0.9816424283511429</v>
       </c>
       <c r="N14">
-        <v>1.046231276010385</v>
+        <v>0.9867439665325738</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038365951867077</v>
+        <v>0.9549407847919668</v>
       </c>
       <c r="D15">
-        <v>1.037740820654179</v>
+        <v>0.983470797169232</v>
       </c>
       <c r="E15">
-        <v>1.046246691922864</v>
+        <v>0.9712090464486149</v>
       </c>
       <c r="F15">
-        <v>1.055409668514867</v>
+        <v>0.967123081546959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032918342565308</v>
+        <v>1.029096923057746</v>
       </c>
       <c r="J15">
-        <v>1.044880500057126</v>
+        <v>0.9861528309194875</v>
       </c>
       <c r="K15">
-        <v>1.041285734747455</v>
+        <v>0.9986376064301009</v>
       </c>
       <c r="L15">
-        <v>1.04976061898497</v>
+        <v>0.9866200597306639</v>
       </c>
       <c r="M15">
-        <v>1.058890831149988</v>
+        <v>0.9826172849504383</v>
       </c>
       <c r="N15">
-        <v>1.046364350216676</v>
+        <v>0.9875532810527038</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039359355824936</v>
+        <v>0.9610046319057046</v>
       </c>
       <c r="D16">
-        <v>1.038453982057839</v>
+        <v>0.9877761447991295</v>
       </c>
       <c r="E16">
-        <v>1.047175850153407</v>
+        <v>0.9766257605819194</v>
       </c>
       <c r="F16">
-        <v>1.056498248081751</v>
+        <v>0.9733647907418167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033112011716815</v>
+        <v>1.030647363945259</v>
       </c>
       <c r="J16">
-        <v>1.045652995377856</v>
+        <v>0.9907735847179989</v>
       </c>
       <c r="K16">
-        <v>1.04188277152082</v>
+        <v>1.002332330343963</v>
       </c>
       <c r="L16">
-        <v>1.050574000663298</v>
+        <v>0.9913923082417618</v>
       </c>
       <c r="M16">
-        <v>1.059864265353526</v>
+        <v>0.9881940530038205</v>
       </c>
       <c r="N16">
-        <v>1.047137942569368</v>
+        <v>0.992180596851617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039981746877138</v>
+        <v>0.9647172377137633</v>
       </c>
       <c r="D17">
-        <v>1.038900646807716</v>
+        <v>0.9904150981232785</v>
       </c>
       <c r="E17">
-        <v>1.047758097764285</v>
+        <v>0.9799457101522601</v>
       </c>
       <c r="F17">
-        <v>1.057180582292431</v>
+        <v>0.9771904199263242</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033232768873863</v>
+        <v>1.031592984051142</v>
       </c>
       <c r="J17">
-        <v>1.046136727083066</v>
+        <v>0.9936022166600478</v>
       </c>
       <c r="K17">
-        <v>1.042256409385232</v>
+        <v>1.00459329879461</v>
       </c>
       <c r="L17">
-        <v>1.051083466580313</v>
+        <v>0.9943147442575623</v>
       </c>
       <c r="M17">
-        <v>1.060474232443267</v>
+        <v>0.991610563559403</v>
       </c>
       <c r="N17">
-        <v>1.047622361229083</v>
+        <v>0.9950132457754722</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040344512431967</v>
+        <v>0.966851620268002</v>
       </c>
       <c r="D18">
-        <v>1.039160935187492</v>
+        <v>0.9919332131416626</v>
       </c>
       <c r="E18">
-        <v>1.048097504115016</v>
+        <v>0.9818555735864331</v>
       </c>
       <c r="F18">
-        <v>1.057578399075255</v>
+        <v>0.9793912368250671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033302943553835</v>
+        <v>1.032135267708689</v>
       </c>
       <c r="J18">
-        <v>1.046418581928496</v>
+        <v>0.9952281946014552</v>
       </c>
       <c r="K18">
-        <v>1.042474035625831</v>
+        <v>1.005892657948437</v>
       </c>
       <c r="L18">
-        <v>1.051380363347589</v>
+        <v>0.9959950301931392</v>
       </c>
       <c r="M18">
-        <v>1.060829788078151</v>
+        <v>0.9935754462664784</v>
       </c>
       <c r="N18">
-        <v>1.047904616340724</v>
+        <v>0.9966415327920587</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040468161590744</v>
+        <v>0.9675742639547518</v>
       </c>
       <c r="D19">
-        <v>1.039249645699612</v>
+        <v>0.9924473621857554</v>
       </c>
       <c r="E19">
-        <v>1.048213197803448</v>
+        <v>0.9825024028822691</v>
       </c>
       <c r="F19">
-        <v>1.057714014638008</v>
+        <v>0.9801366180965871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033326827128186</v>
+        <v>1.032318636252497</v>
       </c>
       <c r="J19">
-        <v>1.046514636933372</v>
+        <v>0.9957786668083507</v>
       </c>
       <c r="K19">
-        <v>1.042548188109642</v>
+        <v>1.006332498933475</v>
       </c>
       <c r="L19">
-        <v>1.051481552630435</v>
+        <v>0.9965639542261839</v>
       </c>
       <c r="M19">
-        <v>1.060950985059499</v>
+        <v>0.9942408217480478</v>
       </c>
       <c r="N19">
-        <v>1.048000807754724</v>
+        <v>0.9971927867326278</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039914997665116</v>
+        <v>0.9643221656869757</v>
       </c>
       <c r="D20">
-        <v>1.038852749158579</v>
+        <v>0.9901341736231166</v>
       </c>
       <c r="E20">
-        <v>1.047695649781966</v>
+        <v>0.9795922940097178</v>
       </c>
       <c r="F20">
-        <v>1.057107392710881</v>
+        <v>0.9767831685293851</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033219839781809</v>
+        <v>1.031492497056094</v>
       </c>
       <c r="J20">
-        <v>1.04608485810554</v>
+        <v>0.9933012319563695</v>
       </c>
       <c r="K20">
-        <v>1.04221635373548</v>
+        <v>1.004352748778805</v>
       </c>
       <c r="L20">
-        <v>1.051028833300834</v>
+        <v>0.9940037380476807</v>
       </c>
       <c r="M20">
-        <v>1.060408812397666</v>
+        <v>0.991246923831902</v>
       </c>
       <c r="N20">
-        <v>1.04757041859166</v>
+        <v>0.9947118336389913</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03811347100113</v>
+        <v>0.9533714670835888</v>
       </c>
       <c r="D21">
-        <v>1.037559520263375</v>
+        <v>0.9823576120733257</v>
       </c>
       <c r="E21">
-        <v>1.046010573098162</v>
+        <v>0.9698083811817449</v>
       </c>
       <c r="F21">
-        <v>1.055133094864359</v>
+        <v>0.965509062531148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032868940861925</v>
+        <v>1.028694558627265</v>
       </c>
       <c r="J21">
-        <v>1.044684086188107</v>
+        <v>0.9849568904553184</v>
       </c>
       <c r="K21">
-        <v>1.041133864125266</v>
+        <v>0.9976811150666917</v>
       </c>
       <c r="L21">
-        <v>1.049553849935866</v>
+        <v>0.9853852433833384</v>
       </c>
       <c r="M21">
-        <v>1.058643452830537</v>
+        <v>0.9811747259501826</v>
       </c>
       <c r="N21">
-        <v>1.046167657417433</v>
+        <v>0.9863556422158993</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036978312616772</v>
+        <v>0.9461672944471834</v>
       </c>
       <c r="D22">
-        <v>1.03674417030146</v>
+        <v>0.9772531531763119</v>
       </c>
       <c r="E22">
-        <v>1.044949144925762</v>
+        <v>0.9633846565609272</v>
       </c>
       <c r="F22">
-        <v>1.053890091892611</v>
+        <v>0.9581064878829388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032645947802646</v>
+        <v>1.026842166588501</v>
       </c>
       <c r="J22">
-        <v>1.043800620003811</v>
+        <v>0.9794665934486197</v>
       </c>
       <c r="K22">
-        <v>1.040450415396447</v>
+        <v>0.9932891108249218</v>
       </c>
       <c r="L22">
-        <v>1.048624005736854</v>
+        <v>0.9797181231024349</v>
       </c>
       <c r="M22">
-        <v>1.057531369357088</v>
+        <v>0.9745561946785989</v>
       </c>
       <c r="N22">
-        <v>1.045282936609821</v>
+        <v>0.9808575483577053</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037580319454782</v>
+        <v>0.9500186652886804</v>
       </c>
       <c r="D23">
-        <v>1.037176618085494</v>
+        <v>0.9799808108034651</v>
       </c>
       <c r="E23">
-        <v>1.045512016779206</v>
+        <v>0.9668175238763447</v>
       </c>
       <c r="F23">
-        <v>1.054549195106273</v>
+        <v>0.9620625480222844</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032764386086881</v>
+        <v>1.027833501327549</v>
       </c>
       <c r="J23">
-        <v>1.044269225461364</v>
+        <v>0.9824017334356581</v>
       </c>
       <c r="K23">
-        <v>1.040812996474627</v>
+        <v>0.9956372804691082</v>
       </c>
       <c r="L23">
-        <v>1.049117170501536</v>
+        <v>0.9827474646014543</v>
       </c>
       <c r="M23">
-        <v>1.058121111778688</v>
+        <v>0.9780937143362686</v>
       </c>
       <c r="N23">
-        <v>1.045752207540874</v>
+        <v>0.9837968565801903</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039945159578561</v>
+        <v>0.9645007774897107</v>
       </c>
       <c r="D24">
-        <v>1.038874392797407</v>
+        <v>0.9902611763909219</v>
       </c>
       <c r="E24">
-        <v>1.047723867982522</v>
+        <v>0.9797520694368232</v>
       </c>
       <c r="F24">
-        <v>1.057140464480055</v>
+        <v>0.9769672820937021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03322568268829</v>
+        <v>1.031537931383098</v>
       </c>
       <c r="J24">
-        <v>1.046108296383704</v>
+        <v>0.9934373075970152</v>
       </c>
       <c r="K24">
-        <v>1.042234454118673</v>
+        <v>1.004461502774801</v>
       </c>
       <c r="L24">
-        <v>1.051053520550441</v>
+        <v>0.9941443432230737</v>
       </c>
       <c r="M24">
-        <v>1.060438373604425</v>
+        <v>0.9914113228651722</v>
       </c>
       <c r="N24">
-        <v>1.047593890154867</v>
+        <v>0.9948481025226549</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042679086289162</v>
+        <v>0.9800986388588162</v>
       </c>
       <c r="D25">
-        <v>1.040835034880914</v>
+        <v>1.001369889421751</v>
       </c>
       <c r="E25">
-        <v>1.050282442438823</v>
+        <v>0.9937290239912672</v>
       </c>
       <c r="F25">
-        <v>1.06014058013323</v>
+        <v>0.9930754882927034</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03375076518789</v>
+        <v>1.03547589244308</v>
       </c>
       <c r="J25">
-        <v>1.048230790495</v>
+        <v>1.005314840202655</v>
       </c>
       <c r="K25">
-        <v>1.043871824103631</v>
+        <v>1.013946976777912</v>
       </c>
       <c r="L25">
-        <v>1.053290142443086</v>
+        <v>1.006425475116579</v>
       </c>
       <c r="M25">
-        <v>1.063118528652901</v>
+        <v>1.005782257965732</v>
       </c>
       <c r="N25">
-        <v>1.049719398451255</v>
+        <v>1.006742502586967</v>
       </c>
     </row>
   </sheetData>
